--- a/src/data/robin_modified.xlsx
+++ b/src/data/robin_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianschafer/Documents/Practice Coding/simulationsVisual_v2/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AB954-400E-8743-A8E4-51AD076131FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54865267-57E1-F047-9687-A588277ACBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="16400" xr2:uid="{90205DF4-A01A-8E4B-ADBB-2CAFD1B852B6}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50769967-833E-B945-BAA8-DECDD789BD07}">
   <dimension ref="A1:AW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -777,8 +777,8 @@
         <v>15</v>
       </c>
       <c r="H2" s="3">
-        <f xml:space="preserve"> IF(B2="Universal", "", IF(F2="sqrt(N)", (E2/(G2/100))*SQRT(2), E2/(G2/100)))</f>
-        <v>9428.090415820634</v>
+        <f xml:space="preserve"> IF(B2="Universal", "", (E2/(G2/100)))</f>
+        <v>6666.666666666667</v>
       </c>
       <c r="I2" s="9">
         <v>202114</v>
@@ -933,8 +933,8 @@
         <v>30</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="0" xml:space="preserve"> IF(B3="Universal", "", IF(F3="sqrt(N)", (E3/(G3/100))*SQRT(2), E3/(G3/100)))</f>
-        <v>4714.045207910317</v>
+        <f t="shared" ref="H3:H66" si="0" xml:space="preserve"> IF(B3="Universal", "", (E3/(G3/100)))</f>
+        <v>3333.3333333333335</v>
       </c>
       <c r="I3" s="9">
         <v>146520</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>2828.4271247461902</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="9">
         <v>125681</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>1885.6180831641268</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="I5" s="9">
         <v>113371</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>9428.090415820634</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I10" s="9">
         <v>359223</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>4714.045207910317</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="I11" s="9">
         <v>259824</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>2828.4271247461902</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="9">
         <v>230099</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>1885.6180831641268</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="I13" s="9">
         <v>215657</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>47140.452079103175</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I20" s="9">
         <v>886684</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>23570.226039551588</v>
+        <v>16666.666666666668</v>
       </c>
       <c r="I21" s="9">
         <v>473246</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
-        <v>14142.135623730952</v>
+        <v>10000</v>
       </c>
       <c r="I22" s="9">
         <v>277201</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>9428.090415820634</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I23" s="9">
         <v>202114</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="0"/>
-        <v>47140.452079103175</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I28" s="9">
         <v>1378234</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
-        <v>23570.226039551588</v>
+        <v>16666.666666666668</v>
       </c>
       <c r="I29" s="9">
         <v>750193</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
-        <v>14142.135623730952</v>
+        <v>10000</v>
       </c>
       <c r="I30" s="9">
         <v>479507</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
-        <v>9428.090415820634</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="I31" s="9">
         <v>359223</v>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="0"/>
-        <v>94280.904158206351</v>
+        <v>66666.666666666672</v>
       </c>
       <c r="I38" s="9">
         <v>1629269</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="0"/>
-        <v>47140.452079103175</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I39" s="9">
         <v>886684</v>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="0"/>
-        <v>28284.271247461904</v>
+        <v>20000</v>
       </c>
       <c r="I40" s="9">
         <v>558707</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="0"/>
-        <v>18856.180831641268</v>
+        <v>13333.333333333334</v>
       </c>
       <c r="I41" s="9">
         <v>371215</v>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="0"/>
-        <v>94280.904158206351</v>
+        <v>66666.666666666672</v>
       </c>
       <c r="I46" s="9">
         <v>2335835</v>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="H47" s="3">
         <f t="shared" si="0"/>
-        <v>47140.452079103175</v>
+        <v>33333.333333333336</v>
       </c>
       <c r="I47" s="9">
         <v>1378234</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" si="0"/>
-        <v>28284.271247461904</v>
+        <v>20000</v>
       </c>
       <c r="I48" s="9">
         <v>879904</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" si="0"/>
-        <v>18856.180831641268</v>
+        <v>13333.333333333334</v>
       </c>
       <c r="I49" s="9">
         <v>620445</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" si="0"/>
-        <v>188561.8083164127</v>
+        <v>133333.33333333334</v>
       </c>
       <c r="I56" s="9">
         <v>2495481</v>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" si="0"/>
-        <v>94280.904158206351</v>
+        <v>66666.666666666672</v>
       </c>
       <c r="I57" s="9">
         <v>1629269</v>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" si="0"/>
-        <v>56568.542494923808</v>
+        <v>40000</v>
       </c>
       <c r="I58" s="9">
         <v>1065432</v>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="0"/>
-        <v>37712.361663282536</v>
+        <v>26666.666666666668</v>
       </c>
       <c r="I59" s="9">
         <v>708181</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="0"/>
-        <v>188561.8083164127</v>
+        <v>133333.33333333334</v>
       </c>
       <c r="I64" s="9">
         <v>2879018</v>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="0"/>
-        <v>94280.904158206351</v>
+        <v>66666.666666666672</v>
       </c>
       <c r="I65" s="9">
         <v>2335835</v>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" si="0"/>
-        <v>56568.542494923808</v>
+        <v>40000</v>
       </c>
       <c r="I66" s="9">
         <v>1616951</v>
@@ -10853,8 +10853,8 @@
         <v>75</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H73" si="6" xml:space="preserve"> IF(B67="Universal", "", IF(F67="sqrt(N)", (E67/(G67/100))*SQRT(2), E67/(G67/100)))</f>
-        <v>37712.361663282536</v>
+        <f t="shared" ref="H67:H73" si="6" xml:space="preserve"> IF(B67="Universal", "", (E67/(G67/100)))</f>
+        <v>26666.666666666668</v>
       </c>
       <c r="I67" s="9">
         <v>1117839</v>
